--- a/チェックリスト/仕様書/エネミー.xlsx
+++ b/チェックリスト/仕様書/エネミー.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBD89DD-6EE9-45BB-852A-88B3B3E1CF3D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C30095-E7FA-455E-924C-387A7979D15E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1047,19 +1047,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>回避する。横にずれてかわすような感じ</t>
-    <rPh sb="0" eb="2">
-      <t>カイヒ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ヨコ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>カン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ドローンへの攻撃方法はスナイパーとする</t>
     <rPh sb="6" eb="8">
       <t>コウゲキ</t>
@@ -1128,6 +1115,13 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>バクハツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>効果なし</t>
+    <rPh sb="0" eb="2">
+      <t>コウカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5945,8 +5939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140"/>
+    <sheetView tabSelected="1" topLeftCell="A173" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A200" sqref="A200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6936,12 +6930,12 @@
     </row>
     <row r="106" spans="1:13">
       <c r="A106" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -6992,17 +6986,17 @@
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="142" spans="1:1">
@@ -7388,7 +7382,7 @@
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="199" spans="1:1">
@@ -7398,7 +7392,7 @@
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
